--- a/list.xlsx
+++ b/list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -497,12 +497,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-TSETMC_ID-2-Ticker</t>
+          <t>https://github.com/imahdimir/d-TSETMC_ID-2-Ticker</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-TSETMC_ID-2-Ticker/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-TSETMC_ID-2-Ticker/main/META.json</t>
         </is>
       </c>
     </row>
@@ -519,12 +519,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-TSETMC_ID-2-FirmTicker</t>
+          <t>https://github.com/imahdimir/d-TSETMC_ID-2-FirmTicker</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-TSETMC_ID-2-FirmTicker/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-TSETMC_ID-2-FirmTicker/main/META.json</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-multi-BaseTickers-2-same-FirmTicker</t>
+          <t>https://github.com/imahdimir/d-multi-BaseTickers-2-same-FirmTicker</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-multi-BaseTickers-2-same-FirmTicker/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-multi-BaseTickers-2-same-FirmTicker/main/META.json</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-MarketTitle-2-MarketID</t>
+          <t>https://github.com/imahdimir/d-MarketTitle-2-MarketID</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-MarketTitle-2-MarketID/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-MarketTitle-2-MarketID/main/META.json</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-MarketID</t>
+          <t>https://github.com/imahdimir/d-MarketID</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-MarketID/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-MarketID/main/META.json</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-BaseTicker</t>
+          <t>https://github.com/imahdimir/d-BaseTicker</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-BaseTicker/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-BaseTicker/main/META.json</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-all-Codal-letters</t>
+          <t>https://github.com/imahdimir/d-all-Codal-letters</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-all-Codal-letters/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-all-Codal-letters/main/META.json</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-CodalTicker-2-FirmTicker</t>
+          <t>https://github.com/imahdimir/d-CodalTicker-2-FirmTicker</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-CodalTicker-2-FirmTicker/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-CodalTicker-2-FirmTicker/main/META.json</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-firm-status-change</t>
+          <t>https://github.com/imahdimir/d-firm-status-change</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-firm-status-change/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-firm-status-change/main/META.json</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-TSE-Overall-Index-TEDPIX</t>
+          <t>https://github.com/imahdimir/d-TSE-Overall-Index-TEDPIX</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-TSE-Overall-Index-TEDPIX/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-TSE-Overall-Index-TEDPIX/main/META.json</t>
         </is>
       </c>
     </row>
@@ -712,12 +712,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-TSE-working-days</t>
+          <t>https://github.com/imahdimir/d-TSE-working-days</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-TSE-working-days/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-TSE-working-days/main/META.json</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-Ticker-2-BaseTicker</t>
+          <t>https://github.com/imahdimir/d-Ticker-2-BaseTicker</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-Ticker-2-BaseTicker/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-Ticker-2-BaseTicker/main/META.json</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-firm-IPO-date</t>
+          <t>https://github.com/imahdimir/d-firm-IPO-date</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-firm-IPO-date/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-firm-IPO-date/main/META.json</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-firms-adjusted-Prices-1-OHLCL-daily</t>
+          <t>https://github.com/imahdimir/d-firms-adjusted-Prices-1-OHLCL-daily</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-firms-adjusted-Prices-1-OHLCL-daily/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-firms-adjusted-Prices-1-OHLCL-daily/main/META.json</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-firm-possible-trade-spells</t>
+          <t>https://github.com/imahdimir/d-firm-possible-trade-spells</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-firm-possible-trade-spells/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-firm-possible-trade-spells/main/META.json</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-firm-open-duration-daily</t>
+          <t>https://github.com/imahdimir/d-firm-open-duration-daily</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-firm-open-duration-daily/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-firm-open-duration-daily/main/META.json</t>
         </is>
       </c>
     </row>
@@ -824,12 +824,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-tse_ir-industry-subIndustry</t>
+          <t>https://github.com/imahdimir/d-tse_ir-industry-subIndustry</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-tse_ir-industry-subIndustry/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-tse_ir-industry-subIndustry/main/META.json</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-firm-ISIC-in-codal</t>
+          <t>https://github.com/imahdimir/d-firm-ISIC-in-codal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-firm-ISIC-in-codal/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-firm-ISIC-in-codal/main/META.json</t>
         </is>
       </c>
     </row>
@@ -858,12 +858,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://github.com//imahdimir/d-USD-IRR-monthly</t>
+          <t>https://github.com/imahdimir/d-USD-IRR-monthly</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://raw.github.com//imahdimir/d-USD-IRR-monthly/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-USD-IRR-monthly/main/META.json</t>
         </is>
       </c>
     </row>

--- a/list.xlsx
+++ b/list.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -658,212 +658,326 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>firm-status-change</t>
+          <t>TSE-Overall-Index-TEDPIX</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Status changes of each TSETMC_ID on TESTMC.com</t>
+          <t>TSE Overall Index (TEDPIX)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-firm-status-change</t>
+          <t>https://github.com/imahdimir/d-TSE-Overall-Index-TEDPIX</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-firm-status-change/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-TSE-Overall-Index-TEDPIX/main/META.json</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TSE-Overall-Index-TEDPIX</t>
+          <t>TSE-working-days</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TSE Overall Index (TEDPIX)</t>
+          <t>TSE Working Days</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-TSE-Overall-Index-TEDPIX</t>
+          <t>https://github.com/imahdimir/d-TSE-working-days</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-TSE-Overall-Index-TEDPIX/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-TSE-working-days/main/META.json</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TSE-working-days</t>
+          <t>Ticker-2-BaseTicker</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TSE Working Days</t>
+          <t>Tickers to BaseTickers map</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-TSE-working-days</t>
+          <t>https://github.com/imahdimir/d-Ticker-2-BaseTicker</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-TSE-working-days/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-Ticker-2-BaseTicker/main/META.json</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ticker-2-BaseTicker</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Tickers to BaseTickers map</t>
+          <t>FirmTicker-IPO_JDate</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-Ticker-2-BaseTicker</t>
+          <t>https://github.com/imahdimir/d-FirmTicker-IPO_JDate</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-Ticker-2-BaseTicker/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-FirmTicker-IPO_JDate/main/META.json</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>firm-IPO-date</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Base Tickers' IPO JDate</t>
+          <t>firms-adjusted-Prices-1-OHLCL-daily</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-firm-IPO-date</t>
+          <t>https://github.com/imahdimir/d-firms-adjusted-Prices-1-OHLCL-daily</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-firm-IPO-date/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-firms-adjusted-Prices-1-OHLCL-daily/main/META.json</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>firms-adjusted-Prices-1-OHLCL-daily</t>
+          <t>FirmTicker-possible-trade-spells</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-firms-adjusted-Prices-1-OHLCL-daily</t>
+          <t>https://github.com/imahdimir/d-FirmTicker-possible-trade-spells</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-firms-adjusted-Prices-1-OHLCL-daily/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-FirmTicker-possible-trade-spells/main/META.json</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>firm-possible-trade-spells</t>
+          <t>FirmTicker-open-duration-daily</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-firm-possible-trade-spells</t>
+          <t>https://github.com/imahdimir/d-FirmTicker-open-duration-daily</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-firm-possible-trade-spells/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-FirmTicker-open-duration-daily/main/META.json</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>firm-open-duration-daily</t>
+          <t>CodalTicker-2-ISIC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-firm-open-duration-daily</t>
+          <t>https://github.com/imahdimir/d-CodalTicker-2-ISIC</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-firm-open-duration-daily/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-CodalTicker-2-ISIC/main/META.json</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tse_ir-industry-subIndustry</t>
+          <t>USD-IRR-monthly</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-tse_ir-industry-subIndustry</t>
+          <t>https://github.com/imahdimir/d-USD-IRR-monthly</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-tse_ir-industry-subIndustry/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-USD-IRR-monthly/main/META.json</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>firm-ISIC-in-codal</t>
+          <t>FirmTicker-2-ISIC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-firm-ISIC-in-codal</t>
+          <t>https://github.com/imahdimir/d-FirmTicker-2-ISIC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-firm-ISIC-in-codal/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-FirmTicker-2-ISIC/main/META.json</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>USD-IRR-monthly</t>
+          <t>FirmTicker-Industry-SubIndustry</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-USD-IRR-monthly</t>
+          <t>https://github.com/imahdimir/d-FirmTicker-Industry-SubIndustry</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-USD-IRR-monthly/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-FirmTicker-Industry-SubIndustry/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ticker-2-FirmTicker</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-Ticker-2-FirmTicker</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-Ticker-2-FirmTicker/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FirmTicker-status-change</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cleaned Status changes of each TSETMC_ID on TESTMC.com</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-FirmTicker-status-change</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-FirmTicker-status-change/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TSETMC_ID-Shenase</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-TSETMC_ID-Shenase</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-TSETMC_ID-Shenase/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>IFB-stocks-only-TradeValue-monthly</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-IFB-stocks-only-TradeValue-monthly</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-IFB-stocks-only-TradeValue-monthly/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FirmTicker-DPS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-FirmTicker-DPS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-FirmTicker-DPS/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CompanyName-2-FirmTicker</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-CompanyName-2-FirmTicker</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-CompanyName-2-FirmTicker/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FirmTickers</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-FirmTickers</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-FirmTickers/main/META.json</t>
         </is>
       </c>
     </row>
